--- a/biology/Histoire de la zoologie et de la botanique/Gaspard_Auguste_Brullé/Gaspard_Auguste_Brullé.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gaspard_Auguste_Brullé/Gaspard_Auguste_Brullé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gaspard_Auguste_Brull%C3%A9</t>
+          <t>Gaspard_Auguste_Brullé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaspard Auguste Brullé est un entomologiste français, né le 7 avril 1809 à Paris et mort le 21 janvier 1873 à Dijon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gaspard_Auguste_Brull%C3%A9</t>
+          <t>Gaspard_Auguste_Brullé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Passionné par les insectes dès son jeune âge, il participe, grâce à l’intervention de Georges Cuvier (1769-1832) à l’expédition de Morée organisée par Jean-Baptiste Bory de Saint-Vincent (1778-1846) dans le Péloponnèse en 1829.
 En 1832, il participe à la fondation de la Société entomologique de France. L’année suivante, il devient aide-naturaliste auprès de la chaire des crustacés, des arachnides et des insectes dirigée par Victor Audouin (1797-1841).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gaspard_Auguste_Brull%C3%A9</t>
+          <t>Gaspard_Auguste_Brullé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Gouillard (2004). Histoire des entomologistes français, 1750-1950. Édition entièrement revue et augmentée. Boubée (Paris) : 287 p.
 Philippe Jaussaud &amp; Édouard R. Brygoo (2004). Du Jardin au Muséum en 516 biographies. Muséum national d’histoire naturelle de Paris : 630 p.
